--- a/TeamProject/ODiYstatus_200724.xlsx
+++ b/TeamProject/ODiYstatus_200724.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ODiY\TeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프로젝트\ODiY\TeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2113,10 +2113,10 @@
   <dimension ref="A1:GA281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7021,11 +7021,11 @@
         <v>3</v>
       </c>
       <c r="I20" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="32"/>
@@ -7224,11 +7224,11 @@
         <v>3</v>
       </c>
       <c r="I21" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K21" s="31"/>
       <c r="L21" s="32"/>
@@ -7427,11 +7427,11 @@
         <v>2</v>
       </c>
       <c r="I22" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="32"/>
@@ -8657,11 +8657,11 @@
         <v>3</v>
       </c>
       <c r="I28" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J28" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K28" s="31"/>
       <c r="L28" s="32"/>
@@ -8864,11 +8864,11 @@
         <v>4</v>
       </c>
       <c r="I29" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J29" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K29" s="31"/>
       <c r="L29" s="32"/>

--- a/TeamProject/ODiYstatus_200724.xlsx
+++ b/TeamProject/ODiYstatus_200724.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프로젝트\ODiY\TeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프로젝트real\TeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2113,10 +2113,10 @@
   <dimension ref="A1:GA281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9071,11 +9071,11 @@
         <v>4</v>
       </c>
       <c r="I30" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J30" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="K30" s="31"/>
       <c r="L30" s="32"/>
